--- a/FirCehua/DataTable/Npc.xlsx
+++ b/FirCehua/DataTable/Npc.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C48ABB-FB00-49E2-AD8B-8345B8E2980D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Npcs" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Npcs" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\Administrator\Desktop\Npcs.xml" htmlTables="1"/>
   </connection>
 </connections>
@@ -119,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,13 +132,17 @@
   </si>
   <si>
     <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,7 +284,7 @@
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
-    <cellStyle name="样式 1" xfId="3"/>
+    <cellStyle name="样式 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="着色 1" xfId="2" builtinId="29"/>
   </cellStyles>
   <dxfs count="8">
@@ -451,26 +452,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A4:G15" tableType="xml" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="计算" connectionId="1">
-  <autoFilter ref="A4:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A4:G15" tableType="xml" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="计算" connectionId="1">
+  <autoFilter ref="A4:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="id" name="id" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/root/role/@id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="country" name="name" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="country" name="name" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/root/role/@country" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="res" name="isMainCharacter" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="res" name="isMainCharacter" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/root/role/@res" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="name" name="sex" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="name" name="sex" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/root/role/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="nick" name="country" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="nick" name="country" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/root/role/@nick" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="7" name="scale" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="scale" name="itemid" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="scale" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="scale" name="itemid" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/root/role/@scale" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -740,11 +741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -796,10 +797,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -814,7 +815,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -835,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>7</v>
@@ -858,7 +859,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -881,7 +882,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -904,7 +905,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -927,7 +928,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
@@ -950,7 +951,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
@@ -973,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
@@ -996,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2">
         <v>7</v>
@@ -1019,7 +1020,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
@@ -1042,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2">
         <v>12</v>
@@ -1065,7 +1066,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2">
         <v>13</v>
@@ -1088,7 +1089,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
